--- a/xlsx/_wiki_金纹希_intext.xlsx
+++ b/xlsx/_wiki_金纹希_intext.xlsx
@@ -2,6 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
+  <workbookProtection/>
   <bookViews>
     <workbookView activeTab="0"/>
   </bookViews>
@@ -544,7 +545,7 @@
         <v>5</v>
       </c>
       <c r="G3" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:7">

--- a/xlsx/_wiki_金纹希_intext.xlsx
+++ b/xlsx/_wiki_金纹希_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="35">
   <si>
     <t>金纹希</t>
   </si>
@@ -114,12 +114,6 @@
   </si>
   <si>
     <t>阅读</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/Project:%E4%B8%8A%E4%BC%A0</t>
-  </si>
-  <si>
-    <t>上传图像或多媒体文件[u]</t>
   </si>
   <si>
     <t>https://de.wikipedia.org/wiki/Kim_Moon-hi</t>
@@ -474,7 +468,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -916,29 +910,6 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="s">
-        <v>0</v>
-      </c>
-      <c r="C20" t="s">
-        <v>1</v>
-      </c>
-      <c r="D20" t="n">
-        <v>19</v>
-      </c>
-      <c r="E20" t="s">
-        <v>35</v>
-      </c>
-      <c r="F20" t="s">
-        <v>36</v>
-      </c>
-      <c r="G20" t="n">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/xlsx/_wiki_金纹希_intext.xlsx
+++ b/xlsx/_wiki_金纹希_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
   <si>
     <t>金纹希</t>
   </si>
@@ -23,91 +23,109 @@
     <t>https://zh.wikipedia.org/zh-cn/%E9%87%91%E7%BA%B9%E5%B8%8C</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E9%9F%A9%E6%B0%91%E5%9B%BD</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%A4%A7%E9%9F%A9%E6%B0%91%E5%9B%BD</t>
   </si>
   <si>
     <t>大韩民国</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/BWF</t>
+    <t>https://zh.wikipedia.org/zh-cn/BWF</t>
   </si>
   <si>
     <t>BWF</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%BD%E6%AF%9B%E7%90%83</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E7%BE%BD%E6%AF%9B%E7%90%83</t>
   </si>
   <si>
     <t>羽毛球</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%98%87%E8%BF%AA%E6%9B%BC%E7%9B%83</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E8%98%87%E8%BF%AA%E6%9B%BC%E7%9B%83</t>
   </si>
   <si>
     <t>苏迪曼杯</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/2009%E5%B9%B4%E8%98%87%E8%BF%AA%E6%9B%BC%E7%9B%83</t>
+    <t>https://zh.wikipedia.org/zh-cn/2009%E5%B9%B4%E8%98%87%E8%BF%AA%E6%9B%BC%E7%9B%83</t>
   </si>
   <si>
     <t>2009年苏迪曼杯</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E9%9D%92%E5%B9%B4%E7%BE%BD%E6%AF%9B%E7%90%83%E9%8C%A6%E6%A8%99%E8%B3%BD</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E4%B8%96%E7%95%8C%E9%9D%92%E5%B9%B4%E7%BE%BD%E6%AF%9B%E7%90%83%E9%8C%A6%E6%A8%99%E8%B3%BD</t>
   </si>
   <si>
     <t>世界青年羽毛球锦标赛</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/2006%E5%B9%B4%E4%B8%96%E7%95%8C%E9%9D%92%E5%B9%B4%E7%BE%BD%E6%AF%9B%E7%90%83%E9%8C%A6%E6%A8%99%E8%B3%BD</t>
+    <t>https://zh.wikipedia.org/zh-cn/2006%E5%B9%B4%E4%B8%96%E7%95%8C%E9%9D%92%E5%B9%B4%E7%BE%BD%E6%AF%9B%E7%90%83%E9%8C%A6%E6%A8%99%E8%B3%BD</t>
   </si>
   <si>
     <t>2006年世界青年羽毛球锦标赛</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%9F%93%E8%AA%9E</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E9%9F%93%E8%AA%9E</t>
   </si>
   <si>
     <t>韩语</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BB%81%E5%B7%9D</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E4%BB%81%E5%B7%9D</t>
   </si>
   <si>
     <t>仁川</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/2010%E5%B9%B4%E4%B8%96%E7%95%8C%E7%BE%BD%E6%AF%9B%E7%90%83%E9%8C%A6%E6%A8%99%E8%B3%BD</t>
+    <t>https://zh.wikipedia.org/zh-cn/2010%E5%B9%B4%E4%B8%96%E7%95%8C%E7%BE%BD%E6%AF%9B%E7%90%83%E9%8C%A6%E6%A8%99%E8%B3%BD</t>
   </si>
   <si>
     <t>2010年世界羽毛球锦标赛</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%9A%AE%E7%B4%85%E8%89%B7</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E7%9A%AE%E7%B4%85%E8%89%B7</t>
   </si>
   <si>
     <t>皮红艳</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/2009%E5%B9%B4%E5%A4%A7%E9%98%AA%E7%BE%BD%E6%AF%9B%E7%90%83%E5%9C%8B%E9%9A%9B%E6%8C%91%E6%88%B0%E8%B3%BD</t>
+    <t>https://zh.wikipedia.org/zh-cn/2009%E5%B9%B4%E5%A4%A7%E9%98%AA%E7%BE%BD%E6%AF%9B%E7%90%83%E5%9C%8B%E9%9A%9B%E6%8C%91%E6%88%B0%E8%B3%BD</t>
   </si>
   <si>
     <t>2009年大阪羽毛球国际挑战赛</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/2010%E5%B9%B4%E9%9F%93%E5%9C%8B%E7%BE%BD%E6%AF%9B%E7%90%83%E8%B6%85%E7%B4%9A%E8%B3%BD</t>
+    <t>https://zh.wikipedia.org/zh-cn/2010%E5%B9%B4%E9%9F%93%E5%9C%8B%E7%BE%BD%E6%AF%9B%E7%90%83%E8%B6%85%E7%B4%9A%E8%B3%BD</t>
   </si>
   <si>
     <t>2010年韩国羽毛球超级赛</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/2010%E5%B9%B4%E5%8A%A0%E6%8B%BF%E5%A4%A7%E7%BE%BD%E6%AF%9B%E7%90%83%E5%A4%A7%E7%8D%8E%E8%B3%BD</t>
+    <t>https://zh.wikipedia.org/zh-cn/2010%E5%B9%B4%E5%8A%A0%E6%8B%BF%E5%A4%A7%E7%BE%BD%E6%AF%9B%E7%90%83%E5%A4%A7%E7%8D%8E%E8%B3%BD</t>
   </si>
   <si>
     <t>2010年加拿大羽毛球大奖赛</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%87%91%E7%B4%8B%E5%B8%8C</t>
+    <t>https://zh.wikipedia.org/zh-cn/2009%E5%B9%B4%E4%B8%96%E7%95%8C%E7%BE%BD%E6%AF%9B%E7%90%83%E9%8C%A6%E6%A8%99%E8%B3%BD</t>
+  </si>
+  <si>
+    <t>2009年世界羽毛球锦标赛</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/zh-cn/2009%E5%B9%B4%E4%B8%96%E7%95%8C%E7%BE%BD%E6%AF%9B%E7%90%83%E9%8C%A6%E6%A8%99%E8%B3%BD%E5%A5%B3%E5%AD%90%E5%96%AE%E6%89%93%E9%A0%85%E7%9B%AE</t>
+  </si>
+  <si>
+    <t>2009年世界羽毛球锦标赛女子单打项目</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/zh-cn/2010%E5%B9%B4%E4%B8%96%E7%95%8C%E7%BE%BD%E6%AF%9B%E7%90%83%E9%8C%A6%E6%A8%99%E8%B3%BD%E5%A5%B3%E5%AD%90%E5%96%AE%E6%89%93%E9%A0%85%E7%9B%AE</t>
+  </si>
+  <si>
+    <t>2010年世界羽毛球锦标赛女子单打项目</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/zh-cn/%E9%87%91%E7%B4%8B%E5%B8%8C</t>
   </si>
   <si>
     <t>浏览条目正文[c]</t>
@@ -468,7 +486,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -881,10 +899,10 @@
         <v>30</v>
       </c>
       <c r="F18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G18" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -901,12 +919,104 @@
         <v>18</v>
       </c>
       <c r="E19" t="s">
+        <v>32</v>
+      </c>
+      <c r="F19" t="s">
         <v>33</v>
       </c>
-      <c r="F19" t="s">
+      <c r="G19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" t="s">
+        <v>1</v>
+      </c>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
         <v>34</v>
       </c>
-      <c r="G19" t="n">
+      <c r="F20" t="s">
+        <v>35</v>
+      </c>
+      <c r="G20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>0</v>
+      </c>
+      <c r="C21" t="s">
+        <v>1</v>
+      </c>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>36</v>
+      </c>
+      <c r="F21" t="s">
+        <v>37</v>
+      </c>
+      <c r="G21" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>0</v>
+      </c>
+      <c r="C22" t="s">
+        <v>1</v>
+      </c>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>36</v>
+      </c>
+      <c r="F22" t="s">
+        <v>38</v>
+      </c>
+      <c r="G22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>0</v>
+      </c>
+      <c r="C23" t="s">
+        <v>1</v>
+      </c>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>39</v>
+      </c>
+      <c r="F23" t="s">
+        <v>40</v>
+      </c>
+      <c r="G23" t="n">
         <v>1</v>
       </c>
     </row>
